--- a/Цвета для скриптов.xlsx
+++ b/Цвета для скриптов.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Android\GeneratorAndroid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1418EF-5648-42AF-97CE-80108C0AB442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283351CB-6CAB-40A8-8334-3D2394908737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB001EA5-33D0-498E-82EA-FAE6291A1F90}"/>
+    <workbookView xWindow="-35208" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{BB001EA5-33D0-498E-82EA-FAE6291A1F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="73">
   <si>
     <t>CH1</t>
   </si>
@@ -148,13 +148,118 @@
   </si>
   <si>
     <t>ENTER</t>
+  </si>
+  <si>
+    <t>ScreenHOME</t>
+  </si>
+  <si>
+    <t>screenONOFF</t>
+  </si>
+  <si>
+    <t>screenCRAMFM</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>FR Fx</t>
+  </si>
+  <si>
+    <t>FR xxxx.x</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>BASE Fx</t>
+  </si>
+  <si>
+    <t>BASE xxxx.x</t>
+  </si>
+  <si>
+    <t>DEV Fx</t>
+  </si>
+  <si>
+    <t>DEV xxxx.x</t>
+  </si>
+  <si>
+    <t>werwrwer</t>
+  </si>
+  <si>
+    <t>werrwe</t>
+  </si>
+  <si>
+    <t>werrw5</t>
+  </si>
+  <si>
+    <t>werewr6</t>
+  </si>
+  <si>
+    <t>werrew1</t>
+  </si>
+  <si>
+    <t>werrew2</t>
+  </si>
+  <si>
+    <t>werwe3</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>xxxx.x</t>
+  </si>
+  <si>
+    <t>screenNUMBERPAD</t>
+  </si>
+  <si>
+    <t>screenFPAD</t>
+  </si>
+  <si>
+    <t>screenCRAMValue</t>
+  </si>
+  <si>
+    <t>screenFMValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +278,12 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
       <charset val="204"/>
@@ -362,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -419,6 +530,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -733,13 +853,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5872AE7-7871-44E0-8C27-6AAF7F2CC7C9}">
-  <dimension ref="A2:S60"/>
+  <dimension ref="A2:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -954,7 +1077,7 @@
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
     </row>
-    <row r="33" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G33" s="24" t="s">
         <v>24</v>
       </c>
@@ -962,7 +1085,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
     </row>
-    <row r="34" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G34" s="25" t="s">
         <v>25</v>
       </c>
@@ -976,7 +1099,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="35" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
       <c r="I35" s="24" t="s">
@@ -986,7 +1109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:20" x14ac:dyDescent="0.3">
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
       <c r="I36" s="24" t="s">
@@ -994,7 +1117,7 @@
       </c>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:20" x14ac:dyDescent="0.3">
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
       <c r="I37" s="24" t="s">
@@ -1002,7 +1125,7 @@
       </c>
       <c r="J37" s="30"/>
     </row>
-    <row r="38" spans="6:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:20" x14ac:dyDescent="0.3">
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
       <c r="I38" s="24" t="s">
@@ -1010,7 +1133,7 @@
       </c>
       <c r="J38" s="30"/>
     </row>
-    <row r="39" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G39" s="31"/>
       <c r="H39" s="22"/>
       <c r="I39" s="32" t="s">
@@ -1018,8 +1141,8 @@
       </c>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="41" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G41" s="34" t="s">
         <v>33</v>
       </c>
@@ -1030,12 +1153,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I42" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:20" x14ac:dyDescent="0.3">
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+    </row>
+    <row r="46" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G46">
         <v>0</v>
       </c>
@@ -1048,8 +1182,17 @@
       <c r="J46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+    </row>
+    <row r="47" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F47" s="10">
         <v>1</v>
       </c>
@@ -1065,32 +1208,17 @@
       <c r="J47" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
-        <v>1</v>
-      </c>
-      <c r="N47" s="2">
-        <v>2</v>
-      </c>
-      <c r="O47" s="2">
-        <v>3</v>
-      </c>
-      <c r="P47" s="2">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>5</v>
-      </c>
-      <c r="R47" s="2">
-        <v>6</v>
-      </c>
-      <c r="S47" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="6:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+    </row>
+    <row r="48" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F48" s="11">
         <v>2</v>
       </c>
@@ -1106,32 +1234,17 @@
       <c r="J48" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="7">
-        <v>8</v>
-      </c>
-      <c r="M48" s="8">
-        <v>9</v>
-      </c>
-      <c r="N48" s="8">
-        <v>10</v>
-      </c>
-      <c r="O48" s="8">
-        <v>11</v>
-      </c>
-      <c r="P48" s="8">
-        <v>12</v>
-      </c>
-      <c r="Q48" s="8">
-        <v>13</v>
-      </c>
-      <c r="R48" s="8">
-        <v>14</v>
-      </c>
-      <c r="S48" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+    </row>
+    <row r="49" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F49" s="11">
         <v>3</v>
       </c>
@@ -1144,8 +1257,13 @@
       <c r="I49" s="10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+    </row>
+    <row r="50" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F50" s="11">
         <v>4</v>
       </c>
@@ -1158,8 +1276,11 @@
       <c r="I50" s="17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F51" s="11">
         <v>5</v>
       </c>
@@ -1173,7 +1294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F52" s="11">
         <v>6</v>
       </c>
@@ -1195,11 +1316,11 @@
       <c r="N52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O52" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F53" s="11">
         <v>7</v>
       </c>
@@ -1221,11 +1342,11 @@
       <c r="N53" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O53" s="37" t="s">
+      <c r="O53" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F54" s="11">
         <v>8</v>
       </c>
@@ -1251,7 +1372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F55" s="11">
         <v>9</v>
       </c>
@@ -1277,7 +1398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F56" s="11">
         <v>10</v>
       </c>
@@ -1291,7 +1412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F57" s="11">
         <v>11</v>
       </c>
@@ -1314,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F58" s="11">
         <v>12</v>
       </c>
@@ -1334,7 +1455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F59" s="11">
         <v>13</v>
       </c>
@@ -1354,7 +1475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="6:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F60" s="12">
         <v>14</v>
       </c>
@@ -1372,6 +1493,525 @@
       </c>
       <c r="O60" s="9">
         <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L63" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="6:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="3"/>
+      <c r="P64" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="3"/>
+    </row>
+    <row r="65" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G65" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="H65" s="37"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="L65" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="19"/>
+      <c r="Q65" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="19"/>
+    </row>
+    <row r="66" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G66" s="17"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="17"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G67" s="12"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L67" s="7"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L68" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K69" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+    </row>
+    <row r="70" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G70" s="37"/>
+      <c r="H70" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M70" s="37"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+    </row>
+    <row r="71" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G71" s="10"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L71" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N71" s="10"/>
+      <c r="O71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="3"/>
+      <c r="V71" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G72" s="17"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="M72" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N72" s="17"/>
+      <c r="O72" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="19"/>
+      <c r="V72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X72" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y72" s="10"/>
+    </row>
+    <row r="73" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L73" t="s">
+        <v>71</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y73" s="17"/>
+    </row>
+    <row r="74" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="V74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X74" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y74" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L75" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M75" s="37"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="V75" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="W75" s="19"/>
+      <c r="X75" s="17"/>
+      <c r="Y75" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L76" s="20"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L77" s="17"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V78" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V79" s="1">
+        <v>1</v>
+      </c>
+      <c r="W79" s="1">
+        <v>2</v>
+      </c>
+      <c r="X79" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y79" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="L80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O80" s="10"/>
+      <c r="Q80" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R80" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S80" s="10"/>
+      <c r="T80" s="3"/>
+      <c r="V80" s="1">
+        <v>4</v>
+      </c>
+      <c r="W80" s="1">
+        <v>5</v>
+      </c>
+      <c r="X80" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y80" s="17"/>
+    </row>
+    <row r="81" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" t="s">
+        <v>29</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O81" s="17"/>
+      <c r="P81" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q81" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R81" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="S81" s="10"/>
+      <c r="T81" s="3"/>
+      <c r="V81" s="1">
+        <v>7</v>
+      </c>
+      <c r="W81" s="1">
+        <v>8</v>
+      </c>
+      <c r="X81" s="17">
+        <v>9</v>
+      </c>
+      <c r="Y81" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G82" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H82" s="3"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N82" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q82" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="R82" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S82" s="17"/>
+      <c r="T82" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V82" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="W82" s="19">
+        <v>0</v>
+      </c>
+      <c r="X82" s="17"/>
+      <c r="Y82" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G83" s="17"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L83" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M83" s="19"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="8"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P84" s="5"/>
+      <c r="Q84" s="39"/>
+      <c r="R84" s="5"/>
+      <c r="S84" t="s">
+        <v>67</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W84" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y84" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P85" s="5"/>
+      <c r="Q85" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R85" s="25"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="3"/>
+      <c r="V85" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W85" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y85" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P86" s="5"/>
+      <c r="Q86" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="R86" s="25"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="3"/>
+      <c r="V86" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X86" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y86" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q87" s="23"/>
+      <c r="R87" s="23"/>
+      <c r="S87" s="17"/>
+      <c r="T87" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V87" s="17"/>
+      <c r="W87" s="19"/>
+      <c r="X87" s="17"/>
+      <c r="Y87" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q88" s="17"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Цвета для скриптов.xlsx
+++ b/Цвета для скриптов.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Android\GeneratorAndroid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283351CB-6CAB-40A8-8334-3D2394908737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62DEEF6-DF7A-4892-854A-A279D6805599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35208" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{BB001EA5-33D0-498E-82EA-FAE6291A1F90}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB001EA5-33D0-498E-82EA-FAE6291A1F90}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
   <si>
     <t>CH1</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>screenFMValue</t>
+  </si>
+  <si>
+    <t>screenFPADFM</t>
+  </si>
+  <si>
+    <t>ScreenComparison</t>
+  </si>
+  <si>
+    <t>ScreenIFValue</t>
   </si>
 </sst>
 </file>
@@ -855,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5872AE7-7871-44E0-8C27-6AAF7F2CC7C9}">
   <dimension ref="A2:Y88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q84" sqref="Q84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1777,6 +1786,12 @@
       </c>
     </row>
     <row r="79" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L79" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>74</v>
+      </c>
       <c r="V79" s="1">
         <v>1</v>
       </c>
@@ -1932,7 +1947,9 @@
     </row>
     <row r="84" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="P84" s="5"/>
-      <c r="Q84" s="39"/>
+      <c r="Q84" s="39" t="s">
+        <v>75</v>
+      </c>
       <c r="R84" s="5"/>
       <c r="S84" t="s">
         <v>67</v>
